--- a/traktor/mapping_ddj_1000/Support files/Technical Info - Version history.xlsx
+++ b/traktor/mapping_ddj_1000/Support files/Technical Info - Version history.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Versions" sheetId="8" r:id="rId1"/>
+    <sheet name="BOME versions" sheetId="10" r:id="rId1"/>
+    <sheet name="Mapping Versions" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>DDJ-SX2</t>
   </si>
@@ -127,18 +128,9 @@
     <t>Last SX2 official by Pioneer</t>
   </si>
   <si>
-    <t>V6.7</t>
-  </si>
-  <si>
     <t>V6.8</t>
   </si>
   <si>
-    <t>Maps merged to BOME</t>
-  </si>
-  <si>
-    <t>SuperKnobs</t>
-  </si>
-  <si>
     <t>Folder "specific mappings" has specific TSI that I made in a shop. These will NEVER be the latest versions.</t>
   </si>
   <si>
@@ -149,6 +141,116 @@
   </si>
   <si>
     <t>Detailed changelog: see "Technical Info - DDJ Controllers.txt"</t>
+  </si>
+  <si>
+    <t>WHICH VERSIONS DO NOT REQUIRE BOME?</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>With BOME</t>
+  </si>
+  <si>
+    <t>Without BOME</t>
+  </si>
+  <si>
+    <t>v6.3.3</t>
+  </si>
+  <si>
+    <t>V6.1.7</t>
+  </si>
+  <si>
+    <t>DDJ-SZ</t>
+  </si>
+  <si>
+    <t>DDJ-1000SRT</t>
+  </si>
+  <si>
+    <t>XDJ-XZ</t>
+  </si>
+  <si>
+    <t>V6.1.4</t>
+  </si>
+  <si>
+    <t>V6.1.2</t>
+  </si>
+  <si>
+    <t>v6.7.0</t>
+  </si>
+  <si>
+    <t>DDJ-1000/800</t>
+  </si>
+  <si>
+    <t>v6.7.0 (note1)</t>
+  </si>
+  <si>
+    <t>v6.1.4 (note2)</t>
+  </si>
+  <si>
+    <t>note2: XDJ-XZ can run without BOME. Missing will be the screens and all Traktor Filter effects</t>
+  </si>
+  <si>
+    <t>v6.1</t>
+  </si>
+  <si>
+    <t>First SRT version</t>
+  </si>
+  <si>
+    <t>All maps merged to BOME</t>
+  </si>
+  <si>
+    <t>1000SRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merged map V6.7 </t>
+  </si>
+  <si>
+    <t>MacOS specific file</t>
+  </si>
+  <si>
+    <t>v7.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As of v7.0, the mapping was redone from scratch and is now donation only. Do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> donate until you can install v6.8 first for yourself!</t>
+    </r>
+  </si>
+  <si>
+    <t>Redone from scratch, donation required</t>
+  </si>
+  <si>
+    <t>Not Free, with bom</t>
+  </si>
+  <si>
+    <t>V6.8.0</t>
+  </si>
+  <si>
+    <t>v7.0.0</t>
+  </si>
+  <si>
+    <t>note1: Jog screens are not supported by a decision of the Serato company</t>
   </si>
 </sst>
 </file>
@@ -216,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,6 +344,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -250,7 +361,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -294,6 +405,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,19 +724,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I31"/>
+  <dimension ref="B3:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
@@ -621,31 +747,23 @@
   <sheetData>
     <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -653,14 +771,12 @@
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -669,293 +785,543 @@
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="11">
-        <v>43922</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f>H17</f>
-        <v>BOME</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="str">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="str">
         <f>D16</f>
-        <v>V6.7</v>
-      </c>
-      <c r="G16" s="11">
-        <v>43891</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f>H17</f>
-        <v>BOME</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+        <v>v6.7.0</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>E16</f>
+        <v>V6.1.7</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="11">
-        <v>43739</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="11">
-        <v>43709</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="11">
-        <v>43617</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="11">
-        <v>43497</v>
-      </c>
-      <c r="H20" s="2" t="str">
-        <f>H19</f>
-        <v>Traktor 3/2</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="11">
-        <v>43313</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="11">
-        <v>42064</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f>H21</f>
-        <v>Traktor 2</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="11">
-        <v>41944</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f>H24</f>
-        <v>Traktor 2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="11">
-        <v>41883</v>
-      </c>
-      <c r="H26" s="2" t="str">
-        <f>H25</f>
-        <v>Traktor 2</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="14">
-        <v>41244</v>
-      </c>
-      <c r="H27" s="7" t="str">
-        <f>H26</f>
-        <v>Traktor 2</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="11">
-        <v>42186</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <f>H27</f>
-        <v>Traktor 2</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="11">
-        <v>41913</v>
-      </c>
-      <c r="H31" s="2" t="str">
-        <f>H30</f>
-        <v>Traktor 2</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>36</v>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11">
+        <v>43983</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18">
+        <v>43922</v>
+      </c>
+      <c r="I19" s="16" t="str">
+        <f>I21</f>
+        <v>BOME</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="14">
+        <v>43891</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f>I21</f>
+        <v>BOME</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="11">
+        <v>43739</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="11">
+        <v>43709</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="11">
+        <v>43617</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="11">
+        <v>43739</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f>I23</f>
+        <v>Traktor 3/2</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="11">
+        <v>43497</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>I23</f>
+        <v>Traktor 3/2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="11">
+        <v>43313</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="11">
+        <v>42064</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>I26</f>
+        <v>Traktor 2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11">
+        <v>41944</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>I29</f>
+        <v>Traktor 2</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="11">
+        <v>41883</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f>I30</f>
+        <v>Traktor 2</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="14">
+        <v>41244</v>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f>I31</f>
+        <v>Traktor 2</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="11">
+        <v>42186</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f>I32</f>
+        <v>Traktor 2</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="11">
+        <v>41913</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f>I35</f>
+        <v>Traktor 2</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>